--- a/${project.build.directory}/classes/${project.build.directory}/classes/${project.build.directory}/classes/test/resources/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/classes/${project.build.directory}/classes/${project.build.directory}/classes/test/resources/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="498">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -16979,7 +16979,7 @@
         <v>440</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>442</v>
@@ -17093,7 +17093,7 @@
       </c>
       <c r="K6"/>
       <c r="L6" s="11" t="s">
-        <v>497</v>
+        <v>450</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>442</v>
